--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2809598.677298196</v>
+        <v>-2810265.473418445</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4795783.348386014</v>
+        <v>4795783.348386011</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="F11" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="G11" t="n">
-        <v>82.6626608970941</v>
+        <v>72.80927171816033</v>
       </c>
       <c r="H11" t="n">
-        <v>19.15802075540807</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681796</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.76019284593445</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.29207558827154</v>
+        <v>10.29207558827159</v>
       </c>
       <c r="U12" t="n">
-        <v>32.57485987793716</v>
+        <v>32.57485987793721</v>
       </c>
       <c r="V12" t="n">
-        <v>35.99613671235124</v>
+        <v>35.9961367123513</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396059</v>
+        <v>62.05179937396065</v>
       </c>
       <c r="X12" t="n">
-        <v>12.6601302364196</v>
+        <v>12.66013023641966</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73150193097462</v>
+        <v>18.73150193097467</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.69078435787949</v>
+        <v>30.69078435787955</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512932</v>
+        <v>19.08561116512938</v>
       </c>
       <c r="U13" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="V13" t="n">
-        <v>40.4562309813989</v>
+        <v>40.45623098139896</v>
       </c>
       <c r="W13" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519153</v>
+        <v>17.26667120519159</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111742</v>
+        <v>12.48848861111748</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>33.73507956837219</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>35.89105811681802</v>
+        <v>35.89105811681796</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.58881163589405</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>17.76019284593451</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823577</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>82.66266089709409</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>36.91821360134239</v>
       </c>
     </row>
     <row r="15">
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.29207558827159</v>
+        <v>10.29207558827154</v>
       </c>
       <c r="U15" t="n">
-        <v>32.57485987793721</v>
+        <v>32.57485987793716</v>
       </c>
       <c r="V15" t="n">
-        <v>35.9961367123513</v>
+        <v>35.99613671235124</v>
       </c>
       <c r="W15" t="n">
-        <v>62.05179937396065</v>
+        <v>62.05179937396059</v>
       </c>
       <c r="X15" t="n">
-        <v>12.66013023641966</v>
+        <v>12.6601302364196</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097467</v>
+        <v>18.73150193097462</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.69078435787955</v>
+        <v>30.69078435787949</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512938</v>
+        <v>19.08561116512932</v>
       </c>
       <c r="U16" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="V16" t="n">
-        <v>40.45623098139896</v>
+        <v>40.4562309813989</v>
       </c>
       <c r="W16" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="X16" t="n">
-        <v>17.26667120519159</v>
+        <v>17.26667120519153</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111748</v>
+        <v>12.48848861111742</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.92381382931688</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C17" t="n">
-        <v>14.04207083266238</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D17" t="n">
-        <v>1.608733093710839</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E17" t="n">
-        <v>35.31548551311971</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F17" t="n">
-        <v>67.03582309149704</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G17" t="n">
-        <v>82.66266089709411</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="H17" t="n">
-        <v>10.73420125866883</v>
+        <v>10.73420125866866</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.733037277250446</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X17" t="n">
-        <v>23.61928774618968</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.12214086993345</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="18">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.92381382931688</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C20" t="n">
-        <v>14.04207083266238</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D20" t="n">
-        <v>1.608733093709987</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E20" t="n">
-        <v>35.31548551311971</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F20" t="n">
-        <v>67.03582309149704</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G20" t="n">
-        <v>82.66266089709411</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="H20" t="n">
-        <v>10.7342012586688</v>
+        <v>10.73420125866863</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.733037277250446</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X20" t="n">
-        <v>23.61928774618968</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.12214086993345</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="21">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.92381382931688</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C23" t="n">
-        <v>14.04207083266238</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D23" t="n">
-        <v>1.608733093710839</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E23" t="n">
-        <v>35.31548551311971</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F23" t="n">
-        <v>67.03582309149704</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G23" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H23" t="n">
-        <v>10.73420125866883</v>
+        <v>10.73420125866863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.733037277250446</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X23" t="n">
-        <v>23.61928774618968</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.12214086993345</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="24">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2417617096389</v>
+        <v>161.2417617096388</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3600187129844</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D26" t="n">
         <v>124.9266809740328</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6334333934417</v>
+        <v>158.6334333934416</v>
       </c>
       <c r="F26" t="n">
         <v>190.353770971819</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9806087774161</v>
+        <v>205.980608777416</v>
       </c>
       <c r="H26" t="n">
         <v>134.0521491389908</v>
       </c>
       <c r="I26" t="n">
-        <v>27.6983636516745</v>
+        <v>27.69836365167444</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39611717075054</v>
+        <v>14.39611717075048</v>
       </c>
       <c r="T26" t="n">
-        <v>9.567498380790994</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30409598309225</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0343049409576</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W26" t="n">
         <v>125.0509851575724</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9372356265117</v>
+        <v>146.9372356265116</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4400887502554</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>117.5665359627544</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T27" t="n">
-        <v>2.099381123128075</v>
+        <v>2.099381123128019</v>
       </c>
       <c r="U27" t="n">
-        <v>24.3821654127937</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V27" t="n">
-        <v>98.66785462871945</v>
+        <v>27.80344224720773</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.85910490881707</v>
       </c>
       <c r="X27" t="n">
-        <v>4.467435771276143</v>
+        <v>4.467435771276087</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.5388074658311</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.49808989273603</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89291669998586</v>
+        <v>10.8929166999858</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81078260145017</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26353651625544</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46522842114086</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X28" t="n">
-        <v>9.073976740048067</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.295794145973957</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2417617096388</v>
+        <v>161.2417617096389</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3600187129843</v>
+        <v>137.3600187129844</v>
       </c>
       <c r="D29" t="n">
         <v>124.9266809740328</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6334333934416</v>
+        <v>158.6334333934417</v>
       </c>
       <c r="F29" t="n">
         <v>190.353770971819</v>
       </c>
       <c r="G29" t="n">
-        <v>205.980608777416</v>
+        <v>205.9806087774161</v>
       </c>
       <c r="H29" t="n">
         <v>134.0521491389908</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69836365167444</v>
+        <v>27.6983636516745</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39611717075048</v>
+        <v>14.39611717075054</v>
       </c>
       <c r="T29" t="n">
-        <v>9.567498380790937</v>
+        <v>9.567498380790994</v>
       </c>
       <c r="U29" t="n">
-        <v>37.3040959830922</v>
+        <v>37.30409598309225</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0343049409575</v>
+        <v>108.0343049409576</v>
       </c>
       <c r="W29" t="n">
         <v>125.0509851575724</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9372356265116</v>
+        <v>146.9372356265117</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4400887502554</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.044035583042461</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38216541279364</v>
+        <v>24.3821654127937</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80344224720773</v>
+        <v>92.62381904567724</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.85910490881713</v>
       </c>
       <c r="X30" t="n">
-        <v>4.467435771276087</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>81.40321984734223</v>
+        <v>10.53880746583116</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.49808989273598</v>
+        <v>22.49808989273603</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8929166999858</v>
+        <v>10.89291669998586</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81078260145011</v>
+        <v>75.81078260145017</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26353651625539</v>
+        <v>32.26353651625544</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46522842114081</v>
+        <v>77.46522842114086</v>
       </c>
       <c r="X31" t="n">
-        <v>9.07397674004801</v>
+        <v>9.073976740048067</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2957941459739</v>
+        <v>4.295794145973957</v>
       </c>
     </row>
     <row r="32">
@@ -3162,19 +3162,19 @@
         <v>2.099381123128019</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38216541279364</v>
+        <v>95.24657779430508</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80344224720773</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.85910490881707</v>
       </c>
       <c r="X33" t="n">
-        <v>4.467435771276087</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>81.40321984733959</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3266,25 +3266,25 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C35" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D35" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E35" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582186</v>
       </c>
       <c r="F35" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G35" t="n">
-        <v>183.1472519421929</v>
+        <v>183.147251942193</v>
       </c>
       <c r="H35" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037677</v>
       </c>
       <c r="I35" t="n">
-        <v>4.865006816451285</v>
+        <v>4.86500681645137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786912</v>
       </c>
       <c r="V35" t="n">
-        <v>85.20094810573434</v>
+        <v>85.20094810573443</v>
       </c>
       <c r="W35" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X35" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.548808577570483</v>
+        <v>1.548808577570568</v>
       </c>
       <c r="V36" t="n">
-        <v>4.97008541198457</v>
+        <v>4.970085411984655</v>
       </c>
       <c r="W36" t="n">
-        <v>31.02574807359392</v>
+        <v>31.025748073594</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.97742576622696</v>
+        <v>52.97742576622704</v>
       </c>
       <c r="V37" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032314</v>
       </c>
       <c r="W37" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591774</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C38" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E38" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582186</v>
       </c>
       <c r="F38" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G38" t="n">
-        <v>183.1472519421929</v>
+        <v>183.147251942193</v>
       </c>
       <c r="H38" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037677</v>
       </c>
       <c r="I38" t="n">
-        <v>4.865006816451285</v>
+        <v>4.86500681645137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786912</v>
       </c>
       <c r="V38" t="n">
-        <v>85.20094810573434</v>
+        <v>85.20094810573443</v>
       </c>
       <c r="W38" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X38" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.548808577570483</v>
+        <v>1.548808577570568</v>
       </c>
       <c r="V39" t="n">
-        <v>4.97008541198457</v>
+        <v>4.970085411984655</v>
       </c>
       <c r="W39" t="n">
-        <v>31.02574807359392</v>
+        <v>31.025748073594</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.97742576622696</v>
+        <v>52.97742576622704</v>
       </c>
       <c r="V40" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032314</v>
       </c>
       <c r="W40" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591774</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>102.0933241388097</v>
       </c>
       <c r="E41" t="n">
-        <v>135.8000765582186</v>
+        <v>135.8000765582185</v>
       </c>
       <c r="F41" t="n">
         <v>167.5204141365959</v>
       </c>
       <c r="G41" t="n">
-        <v>183.147251942193</v>
+        <v>183.1472519421929</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2187923037677</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I41" t="n">
-        <v>4.86500681645137</v>
+        <v>4.865006816451341</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.47073914786912</v>
+        <v>14.4707391478691</v>
       </c>
       <c r="V41" t="n">
-        <v>85.20094810573443</v>
+        <v>85.2009481057344</v>
       </c>
       <c r="W41" t="n">
         <v>102.2176283223493</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.548808577570568</v>
+        <v>1.54880857757054</v>
       </c>
       <c r="V42" t="n">
-        <v>4.970085411984655</v>
+        <v>4.970085411984627</v>
       </c>
       <c r="W42" t="n">
-        <v>31.025748073594</v>
+        <v>31.02574807359397</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.97742576622704</v>
+        <v>52.97742576622701</v>
       </c>
       <c r="V43" t="n">
-        <v>9.430179681032314</v>
+        <v>9.430179681032286</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63187158591774</v>
+        <v>54.63187158591771</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,25 +3977,25 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C44" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D44" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E44" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582186</v>
       </c>
       <c r="F44" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G44" t="n">
-        <v>183.1472519421929</v>
+        <v>183.147251942193</v>
       </c>
       <c r="H44" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037677</v>
       </c>
       <c r="I44" t="n">
-        <v>4.865006816451285</v>
+        <v>4.86500681645137</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786912</v>
       </c>
       <c r="V44" t="n">
-        <v>85.20094810573434</v>
+        <v>85.20094810573443</v>
       </c>
       <c r="W44" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X44" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.548808577570483</v>
+        <v>1.548808577570568</v>
       </c>
       <c r="V45" t="n">
-        <v>4.97008541198457</v>
+        <v>4.970085411984655</v>
       </c>
       <c r="W45" t="n">
-        <v>31.02574807359392</v>
+        <v>31.025748073594</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.97742576622696</v>
+        <v>52.97742576622704</v>
       </c>
       <c r="V46" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032314</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591774</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>312.7110548551092</v>
+        <v>247.1530063185839</v>
       </c>
       <c r="C11" t="n">
-        <v>312.7110548551092</v>
+        <v>247.1530063185839</v>
       </c>
       <c r="D11" t="n">
-        <v>312.7110548551092</v>
+        <v>247.1530063185839</v>
       </c>
       <c r="E11" t="n">
-        <v>229.2134175853172</v>
+        <v>163.6553690487921</v>
       </c>
       <c r="F11" t="n">
-        <v>145.7157803155252</v>
+        <v>80.15773177900019</v>
       </c>
       <c r="G11" t="n">
-        <v>62.21814304573317</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="H11" t="n">
-        <v>42.86660692915941</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="I11" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="J11" t="n">
-        <v>88.44904715989068</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="K11" t="n">
-        <v>170.2850814480138</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="L11" t="n">
-        <v>252.121115736137</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="M11" t="n">
-        <v>252.121115736137</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="N11" t="n">
-        <v>252.121115736137</v>
+        <v>247.7478591123981</v>
       </c>
       <c r="O11" t="n">
-        <v>288.357661351051</v>
+        <v>329.5838934005212</v>
       </c>
       <c r="P11" t="n">
-        <v>288.357661351051</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="Q11" t="n">
-        <v>320.2255419648578</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="R11" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="S11" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="T11" t="n">
-        <v>312.7110548551092</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="U11" t="n">
-        <v>312.7110548551092</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="V11" t="n">
-        <v>312.7110548551092</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="W11" t="n">
-        <v>312.7110548551092</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="X11" t="n">
-        <v>312.7110548551092</v>
+        <v>247.1530063185839</v>
       </c>
       <c r="Y11" t="n">
-        <v>312.7110548551092</v>
+        <v>247.1530063185839</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="C12" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="D12" t="n">
-        <v>6.613012871767528</v>
+        <v>51.63867730697519</v>
       </c>
       <c r="E12" t="n">
-        <v>6.613012871767528</v>
+        <v>51.63867730697519</v>
       </c>
       <c r="F12" t="n">
-        <v>6.613012871767528</v>
+        <v>51.63867730697519</v>
       </c>
       <c r="G12" t="n">
-        <v>6.613012871767528</v>
+        <v>106.9941768965851</v>
       </c>
       <c r="H12" t="n">
-        <v>6.613012871767528</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="I12" t="n">
-        <v>6.613012871767528</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="J12" t="n">
-        <v>88.44904715989068</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="K12" t="n">
-        <v>88.44904715989068</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="L12" t="n">
-        <v>111.0288683722638</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0288683722638</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="N12" t="n">
-        <v>111.0288683722638</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="O12" t="n">
-        <v>111.0288683722638</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="P12" t="n">
-        <v>111.0288683722638</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.0288683722638</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="R12" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="S12" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="T12" t="n">
-        <v>170.2639503784779</v>
+        <v>170.2639503784781</v>
       </c>
       <c r="U12" t="n">
-        <v>137.3600515118747</v>
+        <v>137.3600515118749</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0003174589946</v>
+        <v>101.0003174589948</v>
       </c>
       <c r="W12" t="n">
-        <v>38.32173223277179</v>
+        <v>38.32173223277189</v>
       </c>
       <c r="X12" t="n">
-        <v>25.53372189295401</v>
+        <v>25.53372189295406</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767516</v>
       </c>
     </row>
     <row r="13">
@@ -5173,61 +5173,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.913693823710723</v>
+        <v>33.37851777446954</v>
       </c>
       <c r="C13" t="n">
-        <v>9.913693823710723</v>
+        <v>33.37851777446954</v>
       </c>
       <c r="D13" t="n">
-        <v>68.78912643652761</v>
+        <v>33.37851777446954</v>
       </c>
       <c r="E13" t="n">
-        <v>131.1360029974454</v>
+        <v>33.37851777446954</v>
       </c>
       <c r="F13" t="n">
-        <v>131.1360029974454</v>
+        <v>98.4471607392278</v>
       </c>
       <c r="G13" t="n">
-        <v>131.1360029974454</v>
+        <v>134.0450168577829</v>
       </c>
       <c r="H13" t="n">
-        <v>131.1360029974454</v>
+        <v>172.5328364755604</v>
       </c>
       <c r="I13" t="n">
-        <v>131.1360029974454</v>
+        <v>212.0960528343396</v>
       </c>
       <c r="J13" t="n">
-        <v>131.1360029974454</v>
+        <v>212.0960528343396</v>
       </c>
       <c r="K13" t="n">
-        <v>131.1360029974454</v>
+        <v>293.9320871224626</v>
       </c>
       <c r="L13" t="n">
-        <v>212.9720372855685</v>
+        <v>293.9320871224626</v>
       </c>
       <c r="M13" t="n">
-        <v>212.9720372855685</v>
+        <v>293.9320871224626</v>
       </c>
       <c r="N13" t="n">
-        <v>212.9720372855685</v>
+        <v>293.9320871224626</v>
       </c>
       <c r="O13" t="n">
-        <v>212.9720372855685</v>
+        <v>293.9320871224626</v>
       </c>
       <c r="P13" t="n">
-        <v>294.8080715736917</v>
+        <v>293.9320871224626</v>
       </c>
       <c r="Q13" t="n">
-        <v>294.8080715736917</v>
+        <v>293.9320871224626</v>
       </c>
       <c r="R13" t="n">
-        <v>294.8080715736917</v>
+        <v>294.8080715736916</v>
       </c>
       <c r="S13" t="n">
-        <v>263.8072792930053</v>
+        <v>263.8072792930052</v>
       </c>
       <c r="T13" t="n">
-        <v>244.528884176713</v>
+        <v>244.5288841767129</v>
       </c>
       <c r="U13" t="n">
         <v>161.031246906921</v>
@@ -5236,13 +5236,13 @@
         <v>120.1663671277302</v>
       </c>
       <c r="W13" t="n">
-        <v>36.66872985793818</v>
+        <v>36.66872985793829</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249219</v>
+        <v>19.22764783249224</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767516</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.94244487701012</v>
+        <v>209.8618814687431</v>
       </c>
       <c r="C14" t="n">
-        <v>76.94244487701012</v>
+        <v>126.3642441989513</v>
       </c>
       <c r="D14" t="n">
-        <v>76.94244487701012</v>
+        <v>126.3642441989513</v>
       </c>
       <c r="E14" t="n">
-        <v>76.94244487701012</v>
+        <v>126.3642441989513</v>
       </c>
       <c r="F14" t="n">
-        <v>76.94244487701012</v>
+        <v>42.8666069291594</v>
       </c>
       <c r="G14" t="n">
-        <v>76.94244487701012</v>
+        <v>42.8666069291594</v>
       </c>
       <c r="H14" t="n">
-        <v>42.86660692915946</v>
+        <v>42.8666069291594</v>
       </c>
       <c r="I14" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="J14" t="n">
-        <v>88.44904715989067</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="K14" t="n">
-        <v>88.44904715989067</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="L14" t="n">
-        <v>88.44904715989067</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="M14" t="n">
-        <v>88.44904715989067</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="N14" t="n">
-        <v>165.9118248242753</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="O14" t="n">
-        <v>247.7478591123984</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="P14" t="n">
-        <v>247.7478591123984</v>
+        <v>252.1211157361366</v>
       </c>
       <c r="Q14" t="n">
-        <v>329.5838934005216</v>
+        <v>320.2255419648573</v>
       </c>
       <c r="R14" t="n">
-        <v>330.6506435883763</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="S14" t="n">
-        <v>307.8336621379783</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="T14" t="n">
-        <v>289.8940734047111</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="U14" t="n">
-        <v>243.9377194165941</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="V14" t="n">
-        <v>160.4400821468021</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="W14" t="n">
-        <v>76.94244487701012</v>
+        <v>247.1530063185839</v>
       </c>
       <c r="X14" t="n">
-        <v>76.94244487701012</v>
+        <v>247.1530063185839</v>
       </c>
       <c r="Y14" t="n">
-        <v>76.94244487701012</v>
+        <v>209.8618814687431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.23627977909888</v>
+        <v>20.63403847335513</v>
       </c>
       <c r="C15" t="n">
-        <v>51.19956613099706</v>
+        <v>20.63403847335513</v>
       </c>
       <c r="D15" t="n">
-        <v>51.19956613099706</v>
+        <v>20.63403847335513</v>
       </c>
       <c r="E15" t="n">
-        <v>51.19956613099706</v>
+        <v>20.63403847335513</v>
       </c>
       <c r="F15" t="n">
-        <v>96.57061776328842</v>
+        <v>20.63403847335513</v>
       </c>
       <c r="G15" t="n">
-        <v>96.57061776328842</v>
+        <v>20.63403847335513</v>
       </c>
       <c r="H15" t="n">
-        <v>96.57061776328842</v>
+        <v>98.82395203810384</v>
       </c>
       <c r="I15" t="n">
-        <v>96.57061776328842</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="J15" t="n">
-        <v>96.57061776328842</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="K15" t="n">
-        <v>96.57061776328842</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="L15" t="n">
-        <v>167.6097053736755</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="M15" t="n">
-        <v>167.6097053736755</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="N15" t="n">
-        <v>167.6097053736755</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="O15" t="n">
-        <v>167.6097053736755</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="P15" t="n">
-        <v>167.6097053736755</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.6097053736755</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="R15" t="n">
-        <v>167.6097053736755</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="S15" t="n">
-        <v>180.6599863262272</v>
+        <v>180.6599863262269</v>
       </c>
       <c r="T15" t="n">
-        <v>170.2639503784781</v>
+        <v>170.2639503784778</v>
       </c>
       <c r="U15" t="n">
-        <v>137.3600515118749</v>
+        <v>137.3600515118746</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0003174589948</v>
+        <v>101.0003174589946</v>
       </c>
       <c r="W15" t="n">
-        <v>38.32173223277191</v>
+        <v>38.32173223277178</v>
       </c>
       <c r="X15" t="n">
-        <v>25.53372189295407</v>
+        <v>25.533721892954</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.37851777446954</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="C16" t="n">
-        <v>71.19216497323734</v>
+        <v>44.42666007053538</v>
       </c>
       <c r="D16" t="n">
-        <v>71.19216497323734</v>
+        <v>103.3020926833523</v>
       </c>
       <c r="E16" t="n">
-        <v>71.19216497323734</v>
+        <v>103.3020926833523</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2608079379956</v>
+        <v>103.3020926833523</v>
       </c>
       <c r="G16" t="n">
-        <v>136.2608079379956</v>
+        <v>103.3020926833523</v>
       </c>
       <c r="H16" t="n">
-        <v>136.2608079379956</v>
+        <v>103.3020926833523</v>
       </c>
       <c r="I16" t="n">
-        <v>136.2608079379956</v>
+        <v>103.3020926833523</v>
       </c>
       <c r="J16" t="n">
-        <v>136.2608079379956</v>
+        <v>103.3020926833523</v>
       </c>
       <c r="K16" t="n">
-        <v>136.2608079379956</v>
+        <v>171.6939480358037</v>
       </c>
       <c r="L16" t="n">
-        <v>136.2608079379956</v>
+        <v>236.0559321777833</v>
       </c>
       <c r="M16" t="n">
-        <v>136.2608079379956</v>
+        <v>236.0559321777833</v>
       </c>
       <c r="N16" t="n">
-        <v>218.0968422261187</v>
+        <v>236.0559321777833</v>
       </c>
       <c r="O16" t="n">
-        <v>218.0968422261187</v>
+        <v>236.0559321777833</v>
       </c>
       <c r="P16" t="n">
-        <v>218.0968422261187</v>
+        <v>294.8080715736913</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.3561598243344</v>
+        <v>294.8080715736913</v>
       </c>
       <c r="R16" t="n">
-        <v>294.8080715736919</v>
+        <v>294.8080715736913</v>
       </c>
       <c r="S16" t="n">
-        <v>263.8072792930055</v>
+        <v>263.807279293005</v>
       </c>
       <c r="T16" t="n">
-        <v>244.5288841767132</v>
+        <v>244.5288841767128</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0312469069212</v>
+        <v>161.0312469069209</v>
       </c>
       <c r="V16" t="n">
-        <v>120.1663671277303</v>
+        <v>120.1663671277301</v>
       </c>
       <c r="W16" t="n">
-        <v>36.6687298579383</v>
+        <v>36.66872985793817</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249225</v>
+        <v>19.22764783249218</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.1473307371741</v>
+        <v>220.1473307371738</v>
       </c>
       <c r="C17" t="n">
-        <v>205.9634208051919</v>
+        <v>205.9634208051917</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822516</v>
+        <v>204.3384378822519</v>
       </c>
       <c r="E17" t="n">
-        <v>168.6662302932418</v>
+        <v>168.6662302932424</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9532776755679</v>
+        <v>100.9532776755688</v>
       </c>
       <c r="G17" t="n">
-        <v>17.45564040577644</v>
+        <v>17.45564040577626</v>
       </c>
       <c r="H17" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="I17" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="J17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="K17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="L17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="M17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="N17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="O17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="P17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="Q17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="R17" t="n">
-        <v>85.14254072400693</v>
+        <v>85.14254072400678</v>
       </c>
       <c r="S17" t="n">
-        <v>166.9785750121301</v>
+        <v>166.9785750121298</v>
       </c>
       <c r="T17" t="n">
-        <v>248.8146093002532</v>
+        <v>248.8146093002528</v>
       </c>
       <c r="U17" t="n">
-        <v>330.6506435883763</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="V17" t="n">
-        <v>330.6506435883763</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="W17" t="n">
-        <v>328.9001008840831</v>
+        <v>328.9001008840825</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737905</v>
+        <v>305.04223447379</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930497</v>
+        <v>258.4542133930493</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="C18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="D18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="E18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="F18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="G18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="H18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="I18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="J18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="K18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="L18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="M18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="N18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="O18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="P18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="R18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="S18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="T18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="U18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="V18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="W18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="X18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="C19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="D19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="E19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="F19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="G19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="H19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="I19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="K19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="L19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="M19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="N19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="O19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="P19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="R19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="S19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="T19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="U19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="V19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="W19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="X19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.1473307371738</v>
+        <v>220.1473307371741</v>
       </c>
       <c r="C20" t="n">
-        <v>205.9634208051916</v>
+        <v>205.963420805192</v>
       </c>
       <c r="D20" t="n">
-        <v>204.3384378822522</v>
+        <v>204.3384378822519</v>
       </c>
       <c r="E20" t="n">
-        <v>168.6662302932424</v>
+        <v>168.6662302932423</v>
       </c>
       <c r="F20" t="n">
         <v>100.9532776755686</v>
       </c>
       <c r="G20" t="n">
-        <v>17.45564040577642</v>
+        <v>17.45564040577624</v>
       </c>
       <c r="H20" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="I20" t="n">
-        <v>88.44904715989067</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="J20" t="n">
-        <v>88.44904715989067</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="K20" t="n">
-        <v>170.2850814480138</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="L20" t="n">
-        <v>170.2850814480138</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="M20" t="n">
-        <v>252.121115736137</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="N20" t="n">
-        <v>252.121115736137</v>
+        <v>88.44904715989054</v>
       </c>
       <c r="O20" t="n">
-        <v>330.6506435883763</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="P20" t="n">
-        <v>330.6506435883763</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="Q20" t="n">
-        <v>330.6506435883763</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="R20" t="n">
-        <v>330.6506435883763</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="S20" t="n">
-        <v>330.6506435883763</v>
+        <v>248.8146093002528</v>
       </c>
       <c r="T20" t="n">
-        <v>330.6506435883763</v>
+        <v>248.8146093002528</v>
       </c>
       <c r="U20" t="n">
-        <v>330.6506435883763</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="V20" t="n">
-        <v>330.6506435883763</v>
+        <v>330.6506435883758</v>
       </c>
       <c r="W20" t="n">
-        <v>328.900100884083</v>
+        <v>328.9001008840827</v>
       </c>
       <c r="X20" t="n">
-        <v>305.0422344737904</v>
+        <v>305.0422344737902</v>
       </c>
       <c r="Y20" t="n">
         <v>258.4542133930495</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="C21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="D21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="E21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="F21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="G21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="H21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="I21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="J21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="K21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="L21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="M21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="N21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="O21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="P21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="R21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="S21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="T21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="U21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="V21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="W21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="X21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="C22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="D22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="E22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="F22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="G22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="H22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="I22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="K22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="L22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="M22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="N22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="O22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="P22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="R22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="S22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="T22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="U22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="V22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="W22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="X22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767516</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>220.1473307371745</v>
+        <v>220.1473307371741</v>
       </c>
       <c r="C23" t="n">
-        <v>205.9634208051923</v>
+        <v>205.9634208051921</v>
       </c>
       <c r="D23" t="n">
-        <v>204.338437882252</v>
+        <v>204.3384378822519</v>
       </c>
       <c r="E23" t="n">
-        <v>168.6662302932422</v>
+        <v>168.6662302932423</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9532776755684</v>
+        <v>100.9532776755686</v>
       </c>
       <c r="G23" t="n">
-        <v>17.45564040577644</v>
+        <v>17.45564040577624</v>
       </c>
       <c r="H23" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I23" t="n">
-        <v>6.613012871767527</v>
+        <v>70.01173421403584</v>
       </c>
       <c r="J23" t="n">
-        <v>6.613012871767527</v>
+        <v>70.01173421403584</v>
       </c>
       <c r="K23" t="n">
-        <v>88.44904715989067</v>
+        <v>70.01173421403584</v>
       </c>
       <c r="L23" t="n">
-        <v>88.44904715989067</v>
+        <v>70.01173421403584</v>
       </c>
       <c r="M23" t="n">
-        <v>170.2850814480138</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="N23" t="n">
-        <v>170.2850814480138</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="O23" t="n">
-        <v>170.2850814480138</v>
+        <v>233.6838027902819</v>
       </c>
       <c r="P23" t="n">
-        <v>170.2850814480138</v>
+        <v>233.6838027902819</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.2850814480138</v>
+        <v>233.6838027902819</v>
       </c>
       <c r="R23" t="n">
-        <v>248.8146093002538</v>
+        <v>315.519837078405</v>
       </c>
       <c r="S23" t="n">
-        <v>248.8146093002538</v>
+        <v>315.519837078405</v>
       </c>
       <c r="T23" t="n">
-        <v>248.8146093002538</v>
+        <v>315.519837078405</v>
       </c>
       <c r="U23" t="n">
-        <v>330.650643588377</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V23" t="n">
-        <v>330.650643588377</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9001008840836</v>
+        <v>328.9001008840827</v>
       </c>
       <c r="X23" t="n">
-        <v>305.042234473791</v>
+        <v>305.0422344737903</v>
       </c>
       <c r="Y23" t="n">
-        <v>258.4542133930501</v>
+        <v>258.4542133930496</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.613012871767527</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.989143861833</v>
+        <v>1024.989143861834</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2416502123539</v>
+        <v>886.2416502123544</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0530835719167</v>
+        <v>760.0530835719173</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8172922654098</v>
+        <v>599.8172922654106</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5407559302391</v>
+        <v>407.54075593024</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4795349429505</v>
+        <v>199.4795349429511</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07332369144463</v>
+        <v>64.07332369144524</v>
       </c>
       <c r="I26" t="n">
         <v>36.09517858874312</v>
@@ -6227,13 +6227,13 @@
         <v>171.8138854154936</v>
       </c>
       <c r="K26" t="n">
-        <v>377.39293892921</v>
+        <v>377.3929389292102</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7189186691555</v>
+        <v>636.7189186691564</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707762</v>
+        <v>930.3987315707773</v>
       </c>
       <c r="N26" t="n">
         <v>1218.578533116674</v>
@@ -6245,28 +6245,28 @@
         <v>1663.028607199425</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.223060293145</v>
+        <v>1786.223060293146</v>
       </c>
       <c r="R26" t="n">
         <v>1804.758929437156</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.217396941448</v>
+        <v>1790.217396941449</v>
       </c>
       <c r="T26" t="n">
         <v>1780.553257162872</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.872352129445</v>
+        <v>1742.872352129446</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.746791583023</v>
+        <v>1633.746791583024</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.432665161233</v>
+        <v>1507.432665161234</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.011215033443</v>
+        <v>1359.011215033444</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.859610235206</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.09517858874312</v>
+        <v>344.2615295858344</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09517858874312</v>
+        <v>154.8492553187981</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09517858874312</v>
+        <v>154.8492553187981</v>
       </c>
       <c r="E27" t="n">
         <v>36.09517858874312</v>
@@ -6306,49 +6306,49 @@
         <v>36.09517858874312</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09223206028358</v>
+        <v>75.09223206028359</v>
       </c>
       <c r="L27" t="n">
         <v>193.8151253226842</v>
       </c>
       <c r="M27" t="n">
-        <v>237.4189914840545</v>
+        <v>377.1138061802541</v>
       </c>
       <c r="N27" t="n">
-        <v>443.9889325685565</v>
+        <v>528.8364818199307</v>
       </c>
       <c r="O27" t="n">
-        <v>577.2129895868139</v>
+        <v>662.0605388381881</v>
       </c>
       <c r="P27" t="n">
-        <v>662.0605388381922</v>
+        <v>662.0605388381881</v>
       </c>
       <c r="Q27" t="n">
-        <v>662.0605388381922</v>
+        <v>662.0605388381881</v>
       </c>
       <c r="R27" t="n">
-        <v>662.0605388381922</v>
+        <v>662.0605388381881</v>
       </c>
       <c r="S27" t="n">
-        <v>662.0605388381922</v>
+        <v>468.6558093121512</v>
       </c>
       <c r="T27" t="n">
-        <v>659.9399518451336</v>
+        <v>466.5352223190926</v>
       </c>
       <c r="U27" t="n">
-        <v>635.3115019332207</v>
+        <v>441.9067724071799</v>
       </c>
       <c r="V27" t="n">
-        <v>535.6470023082516</v>
+        <v>413.8224873089902</v>
       </c>
       <c r="W27" t="n">
-        <v>266.2484330385429</v>
+        <v>359.4193510374578</v>
       </c>
       <c r="X27" t="n">
-        <v>261.7358716534155</v>
+        <v>354.9067896523305</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.09517858874312</v>
+        <v>344.2615295858344</v>
       </c>
     </row>
     <row r="28">
@@ -6361,70 +6361,70 @@
         <v>36.09517858874312</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09517858874312</v>
+        <v>64.51644910703001</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09517858874312</v>
+        <v>64.51644910703001</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09517858874312</v>
+        <v>134.9740931884398</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09517858874312</v>
+        <v>134.9740931884398</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09517858874312</v>
+        <v>178.6827168274871</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09517858874312</v>
+        <v>178.6827168274871</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09517858874312</v>
+        <v>178.6827168274871</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09517858874312</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09517858874312</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09517858874312</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09517858874312</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="N28" t="n">
-        <v>96.37045088625453</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7419715358041</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7419715358041</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7419715358041</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7419715358041</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0166282098081</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0136820482062</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4371339659334</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8477031414329</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W28" t="n">
-        <v>49.59999766553305</v>
+        <v>49.59999766553293</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477742</v>
+        <v>40.43436459477736</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09517858874312</v>
@@ -6443,19 +6443,19 @@
         <v>886.2416502123535</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0530835719164</v>
+        <v>760.0530835719162</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654097</v>
+        <v>599.8172922654095</v>
       </c>
       <c r="F29" t="n">
-        <v>407.540755930239</v>
+        <v>407.5407559302387</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4795349429501</v>
+        <v>199.4795349429505</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07332369144457</v>
+        <v>64.07332369144464</v>
       </c>
       <c r="I29" t="n">
         <v>36.09517858874312</v>
@@ -6464,7 +6464,7 @@
         <v>171.8138854154936</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3929389292101</v>
+        <v>377.39293892921</v>
       </c>
       <c r="L29" t="n">
         <v>636.7189186691555</v>
@@ -6476,22 +6476,22 @@
         <v>1218.578533116673</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.5321026131</v>
+        <v>1465.532102613101</v>
       </c>
       <c r="P29" t="n">
         <v>1663.028607199425</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.223060293145</v>
+        <v>1786.223060293146</v>
       </c>
       <c r="R29" t="n">
         <v>1804.758929437156</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.217396941448</v>
+        <v>1790.217396941449</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.553257162871</v>
+        <v>1780.553257162872</v>
       </c>
       <c r="U29" t="n">
         <v>1742.872352129445</v>
@@ -6546,43 +6546,43 @@
         <v>36.09517858874312</v>
       </c>
       <c r="L30" t="n">
-        <v>154.8180718511437</v>
+        <v>54.12031062648484</v>
       </c>
       <c r="M30" t="n">
-        <v>338.1167527087136</v>
+        <v>237.4189914840547</v>
       </c>
       <c r="N30" t="n">
-        <v>544.6866937932157</v>
+        <v>443.9889325685567</v>
       </c>
       <c r="O30" t="n">
-        <v>662.0605388381914</v>
+        <v>577.2129895868142</v>
       </c>
       <c r="P30" t="n">
-        <v>662.0605388381914</v>
+        <v>662.0605388381924</v>
       </c>
       <c r="Q30" t="n">
-        <v>662.0605388381914</v>
+        <v>655.9554523906747</v>
       </c>
       <c r="R30" t="n">
-        <v>662.0605388381914</v>
+        <v>655.9554523906747</v>
       </c>
       <c r="S30" t="n">
-        <v>662.0605388381914</v>
+        <v>655.9554523906747</v>
       </c>
       <c r="T30" t="n">
-        <v>444.9445188469565</v>
+        <v>438.8394323994399</v>
       </c>
       <c r="U30" t="n">
-        <v>420.3160689350437</v>
+        <v>414.2109824875271</v>
       </c>
       <c r="V30" t="n">
-        <v>392.2317838368541</v>
+        <v>320.6515693100753</v>
       </c>
       <c r="W30" t="n">
-        <v>122.8332145671455</v>
+        <v>266.2484330385429</v>
       </c>
       <c r="X30" t="n">
-        <v>118.3206531820181</v>
+        <v>46.74043865523925</v>
       </c>
       <c r="Y30" t="n">
         <v>36.09517858874312</v>
@@ -6601,67 +6601,67 @@
         <v>36.09517858874312</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09517858874312</v>
+        <v>103.081378722052</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09517858874312</v>
+        <v>103.081378722052</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09517858874312</v>
+        <v>103.081378722052</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09517858874312</v>
+        <v>103.081378722052</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09517858874312</v>
+        <v>103.081378722052</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09517858874312</v>
+        <v>103.081378722052</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09517858874312</v>
+        <v>195.1406334303686</v>
       </c>
       <c r="K31" t="n">
-        <v>181.0760624471081</v>
+        <v>195.1406334303686</v>
       </c>
       <c r="L31" t="n">
-        <v>181.0760624471081</v>
+        <v>195.1406334303686</v>
       </c>
       <c r="M31" t="n">
-        <v>181.0760624471081</v>
+        <v>195.1406334303686</v>
       </c>
       <c r="N31" t="n">
-        <v>181.0760624471081</v>
+        <v>195.1406334303686</v>
       </c>
       <c r="O31" t="n">
-        <v>181.0760624471081</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="P31" t="n">
-        <v>185.5203561027687</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358041</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0166282098078</v>
+        <v>248.0166282098081</v>
       </c>
       <c r="T31" t="n">
-        <v>237.013682048206</v>
+        <v>237.0136820482062</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4371339659331</v>
+        <v>160.4371339659334</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8477031414327</v>
+        <v>127.8477031414329</v>
       </c>
       <c r="W31" t="n">
-        <v>49.59999766553293</v>
+        <v>49.59999766553305</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43436459477736</v>
+        <v>40.43436459477743</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09517858874312</v>
@@ -6677,46 +6677,46 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2416502123538</v>
+        <v>886.2416502123542</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0530835719167</v>
+        <v>760.0530835719171</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8172922654099</v>
+        <v>599.8172922654104</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5407559302392</v>
+        <v>407.5407559302397</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4795349429504</v>
+        <v>199.4795349429501</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07332369144456</v>
+        <v>64.07332369144459</v>
       </c>
       <c r="I32" t="n">
         <v>36.09517858874312</v>
       </c>
       <c r="J32" t="n">
-        <v>171.813885415494</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292106</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L32" t="n">
-        <v>636.718918669156</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M32" t="n">
-        <v>930.3987315707767</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.578533116674</v>
+        <v>1218.578533116673</v>
       </c>
       <c r="O32" t="n">
         <v>1465.5321026131</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.028607199425</v>
+        <v>1663.028607199424</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.223060293145</v>
@@ -6740,10 +6740,10 @@
         <v>1507.432665161233</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.011215033443</v>
+        <v>1359.011215033444</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.859610235205</v>
+        <v>1187.859610235206</v>
       </c>
     </row>
     <row r="33">
@@ -6780,46 +6780,46 @@
         <v>36.09517858874312</v>
       </c>
       <c r="K33" t="n">
-        <v>75.09223206028358</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="L33" t="n">
-        <v>138.9678598778595</v>
+        <v>54.12031062648427</v>
       </c>
       <c r="M33" t="n">
-        <v>322.2665407354294</v>
+        <v>237.4189914840542</v>
       </c>
       <c r="N33" t="n">
-        <v>528.8364818199314</v>
+        <v>443.9889325685562</v>
       </c>
       <c r="O33" t="n">
-        <v>662.0605388381888</v>
+        <v>577.2129895868136</v>
       </c>
       <c r="P33" t="n">
-        <v>662.0605388381888</v>
+        <v>662.0605388381919</v>
       </c>
       <c r="Q33" t="n">
-        <v>662.0605388381888</v>
+        <v>662.0605388381919</v>
       </c>
       <c r="R33" t="n">
-        <v>662.0605388381888</v>
+        <v>662.0605388381919</v>
       </c>
       <c r="S33" t="n">
-        <v>662.0605388381888</v>
+        <v>662.0605388381919</v>
       </c>
       <c r="T33" t="n">
-        <v>659.9399518451302</v>
+        <v>659.9399518451332</v>
       </c>
       <c r="U33" t="n">
-        <v>635.3115019332174</v>
+        <v>563.7312874064412</v>
       </c>
       <c r="V33" t="n">
-        <v>392.2317838368515</v>
+        <v>535.6470023082516</v>
       </c>
       <c r="W33" t="n">
-        <v>122.8332145671428</v>
+        <v>481.2438660367191</v>
       </c>
       <c r="X33" t="n">
-        <v>118.3206531820154</v>
+        <v>261.7358716534155</v>
       </c>
       <c r="Y33" t="n">
         <v>36.09517858874312</v>
@@ -6841,43 +6841,43 @@
         <v>36.09517858874312</v>
       </c>
       <c r="E34" t="n">
-        <v>106.5528226701529</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F34" t="n">
-        <v>179.7322331554033</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G34" t="n">
-        <v>179.7322331554033</v>
+        <v>74.84746654009655</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7322331554033</v>
+        <v>121.4460536783662</v>
       </c>
       <c r="I34" t="n">
-        <v>179.7322331554033</v>
+        <v>169.1200375576375</v>
       </c>
       <c r="J34" t="n">
-        <v>179.7322331554033</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="K34" t="n">
-        <v>179.7322331554033</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="L34" t="n">
-        <v>179.7322331554033</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="M34" t="n">
-        <v>179.7322331554033</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7419715358037</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7419715358037</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7419715358037</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7419715358037</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="R34" t="n">
         <v>270.7419715358037</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9281533672752</v>
+        <v>856.9281533672756</v>
       </c>
       <c r="C35" t="n">
-        <v>741.2446565210518</v>
+        <v>741.2446565210519</v>
       </c>
       <c r="D35" t="n">
         <v>638.1200866838703</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806193</v>
+        <v>500.9482921806192</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487043</v>
+        <v>331.7357526487041</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646711</v>
+        <v>146.7385284646708</v>
       </c>
       <c r="H35" t="n">
-        <v>34.39631401642134</v>
+        <v>34.39631401642144</v>
       </c>
       <c r="I35" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J35" t="n">
-        <v>29.48216571697559</v>
+        <v>187.8058958105969</v>
       </c>
       <c r="K35" t="n">
-        <v>29.48216571697559</v>
+        <v>415.9899725911843</v>
       </c>
       <c r="L35" t="n">
-        <v>311.413168723792</v>
+        <v>589.3913409207017</v>
       </c>
       <c r="M35" t="n">
-        <v>627.6980048922837</v>
+        <v>905.6761770891933</v>
       </c>
       <c r="N35" t="n">
-        <v>817.1626217339794</v>
+        <v>1216.461001901961</v>
       </c>
       <c r="O35" t="n">
-        <v>1086.721214497277</v>
+        <v>1252.697547516875</v>
       </c>
       <c r="P35" t="n">
-        <v>1306.822742350472</v>
+        <v>1266.358768103901</v>
       </c>
       <c r="Q35" t="n">
-        <v>1452.622218711064</v>
+        <v>1412.158244464492</v>
       </c>
       <c r="R35" t="n">
-        <v>1452.622218711064</v>
+        <v>1453.299136875374</v>
       </c>
       <c r="S35" t="n">
         <v>1460.975085978892</v>
@@ -6974,13 +6974,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W35" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X35" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y35" t="n">
-        <v>996.7346229373921</v>
+        <v>996.7346229373926</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="L36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="M36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="N36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="O36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="P36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="R36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="S36" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="T36" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="U36" t="n">
-        <v>65.84159348018619</v>
+        <v>65.84159348018638</v>
       </c>
       <c r="V36" t="n">
-        <v>60.82130518525228</v>
+        <v>60.82130518525238</v>
       </c>
       <c r="W36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F37" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="G37" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="H37" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="I37" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="J37" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="K37" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="L37" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="M37" t="n">
-        <v>29.48216571697559</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="N37" t="n">
-        <v>147.7038596898815</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="O37" t="n">
-        <v>147.7038596898815</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="P37" t="n">
-        <v>147.7038596898815</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7038596898815</v>
+        <v>125.2665994690968</v>
       </c>
       <c r="R37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="S37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="T37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="U37" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086455</v>
       </c>
       <c r="V37" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961979</v>
       </c>
       <c r="W37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.9281533672755</v>
+        <v>856.9281533672764</v>
       </c>
       <c r="C38" t="n">
-        <v>741.2446565210523</v>
+        <v>741.244656521053</v>
       </c>
       <c r="D38" t="n">
-        <v>638.1200866838708</v>
+        <v>638.1200866838712</v>
       </c>
       <c r="E38" t="n">
-        <v>500.9482921806195</v>
+        <v>500.9482921806197</v>
       </c>
       <c r="F38" t="n">
-        <v>331.7357526487045</v>
+        <v>331.7357526487046</v>
       </c>
       <c r="G38" t="n">
         <v>146.7385284646713</v>
       </c>
       <c r="H38" t="n">
-        <v>34.39631401642134</v>
+        <v>34.39631401642144</v>
       </c>
       <c r="I38" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="J38" t="n">
-        <v>171.9398232317351</v>
+        <v>187.8058958105969</v>
       </c>
       <c r="K38" t="n">
-        <v>400.1239000123226</v>
+        <v>415.9899725911843</v>
       </c>
       <c r="L38" t="n">
-        <v>682.054903019139</v>
+        <v>697.9209755980006</v>
       </c>
       <c r="M38" t="n">
-        <v>998.3397391876307</v>
+        <v>739.6998440695961</v>
       </c>
       <c r="N38" t="n">
-        <v>1309.124564000399</v>
+        <v>1050.484668882364</v>
       </c>
       <c r="O38" t="n">
-        <v>1309.124564000399</v>
+        <v>1086.721214497278</v>
       </c>
       <c r="P38" t="n">
-        <v>1322.785784587424</v>
+        <v>1306.822742350473</v>
       </c>
       <c r="Q38" t="n">
-        <v>1452.622218711064</v>
+        <v>1452.622218711065</v>
       </c>
       <c r="R38" t="n">
-        <v>1452.622218711064</v>
+        <v>1452.622218711065</v>
       </c>
       <c r="S38" t="n">
-        <v>1460.975085978892</v>
+        <v>1460.975085978893</v>
       </c>
       <c r="T38" t="n">
         <v>1474.10828584878</v>
       </c>
       <c r="U38" t="n">
-        <v>1459.491377618609</v>
+        <v>1459.49137761861</v>
       </c>
       <c r="V38" t="n">
-        <v>1373.429813875443</v>
+        <v>1373.429813875444</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X38" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932376</v>
       </c>
       <c r="Y38" t="n">
-        <v>996.7346229373924</v>
+        <v>996.7346229373934</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="C39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="D39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="E39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="F39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="G39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="H39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="I39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="J39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="K39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="L39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="M39" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="N39" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="O39" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="P39" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="R39" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="S39" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="T39" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="U39" t="n">
-        <v>65.84159348018619</v>
+        <v>65.84159348018638</v>
       </c>
       <c r="V39" t="n">
-        <v>60.82130518525228</v>
+        <v>60.82130518525238</v>
       </c>
       <c r="W39" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="X39" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="C40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="D40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="E40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="F40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="G40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="H40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="I40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="J40" t="n">
-        <v>29.48216571697559</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="K40" t="n">
-        <v>29.48216571697559</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="L40" t="n">
-        <v>29.48216571697559</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="M40" t="n">
-        <v>29.48216571697559</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="N40" t="n">
-        <v>147.7038596898815</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="O40" t="n">
-        <v>147.7038596898815</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="P40" t="n">
-        <v>147.7038596898815</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7038596898815</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="R40" t="n">
-        <v>147.7038596898815</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="S40" t="n">
-        <v>147.7038596898815</v>
+        <v>144.1464436921631</v>
       </c>
       <c r="T40" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="U40" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086455</v>
       </c>
       <c r="V40" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961979</v>
       </c>
       <c r="W40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="X40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672759</v>
+        <v>856.9281533672763</v>
       </c>
       <c r="C41" t="n">
-        <v>741.2446565210521</v>
+        <v>741.2446565210529</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838706</v>
+        <v>638.1200866838714</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806195</v>
+        <v>500.9482921806203</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487044</v>
+        <v>331.7357526487053</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646711</v>
+        <v>146.7385284646716</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642142</v>
+        <v>34.39631401642141</v>
       </c>
       <c r="I41" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="J41" t="n">
-        <v>29.48216571697559</v>
+        <v>187.805895810597</v>
       </c>
       <c r="K41" t="n">
-        <v>53.96143410649546</v>
+        <v>208.0442075185308</v>
       </c>
       <c r="L41" t="n">
-        <v>335.8924371133118</v>
+        <v>489.9752105253471</v>
       </c>
       <c r="M41" t="n">
-        <v>652.1772732818033</v>
+        <v>806.2600466938387</v>
       </c>
       <c r="N41" t="n">
-        <v>962.9620980945713</v>
+        <v>883.7228243582233</v>
       </c>
       <c r="O41" t="n">
-        <v>1232.520690857869</v>
+        <v>1045.580322086397</v>
       </c>
       <c r="P41" t="n">
-        <v>1452.622218711064</v>
+        <v>1265.681849939592</v>
       </c>
       <c r="Q41" t="n">
-        <v>1452.622218711064</v>
+        <v>1411.481326300183</v>
       </c>
       <c r="R41" t="n">
-        <v>1452.622218711064</v>
+        <v>1452.622218711065</v>
       </c>
       <c r="S41" t="n">
-        <v>1460.975085978892</v>
+        <v>1460.975085978893</v>
       </c>
       <c r="T41" t="n">
         <v>1474.10828584878</v>
       </c>
       <c r="U41" t="n">
-        <v>1459.491377618609</v>
+        <v>1459.49137761861</v>
       </c>
       <c r="V41" t="n">
-        <v>1373.429813875443</v>
+        <v>1373.429813875444</v>
       </c>
       <c r="W41" t="n">
         <v>1270.179684256909</v>
       </c>
       <c r="X41" t="n">
-        <v>1144.822230932375</v>
+        <v>1144.822230932376</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373928</v>
+        <v>996.7346229373934</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="C42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="D42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="E42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="F42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="G42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="H42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="I42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="J42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="K42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="L42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="M42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="N42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="O42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="P42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="R42" t="n">
-        <v>46.8794106338694</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="S42" t="n">
-        <v>46.8794106338694</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="T42" t="n">
-        <v>67.40604658884349</v>
+        <v>67.40604658884342</v>
       </c>
       <c r="U42" t="n">
-        <v>65.84159348018636</v>
+        <v>65.84159348018632</v>
       </c>
       <c r="V42" t="n">
-        <v>60.82130518525237</v>
+        <v>60.82130518525236</v>
       </c>
       <c r="W42" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="X42" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="C43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="D43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="E43" t="n">
-        <v>29.48216571697559</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="F43" t="n">
-        <v>29.48216571697559</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="G43" t="n">
-        <v>29.48216571697559</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="H43" t="n">
-        <v>29.48216571697559</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="I43" t="n">
-        <v>99.76117286311774</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="J43" t="n">
-        <v>99.76117286311774</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="K43" t="n">
-        <v>99.76117286311774</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="L43" t="n">
-        <v>99.76117286311774</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="M43" t="n">
-        <v>99.76117286311774</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="N43" t="n">
-        <v>99.76117286311774</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="O43" t="n">
-        <v>99.76117286311774</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="P43" t="n">
-        <v>99.76117286311774</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="Q43" t="n">
-        <v>135.8828239559969</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="R43" t="n">
-        <v>135.8828239559969</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="S43" t="n">
-        <v>135.8828239559969</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="T43" t="n">
-        <v>147.7038596898818</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086454</v>
+        <v>94.19130841086449</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961977</v>
+        <v>84.66587438961976</v>
       </c>
       <c r="W43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="X43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672755</v>
+        <v>856.9281533672762</v>
       </c>
       <c r="C44" t="n">
-        <v>741.2446565210521</v>
+        <v>741.2446565210528</v>
       </c>
       <c r="D44" t="n">
-        <v>638.1200866838706</v>
+        <v>638.120086683871</v>
       </c>
       <c r="E44" t="n">
-        <v>500.9482921806193</v>
+        <v>500.9482921806195</v>
       </c>
       <c r="F44" t="n">
         <v>331.7357526487044</v>
@@ -7640,58 +7640,58 @@
         <v>146.7385284646712</v>
       </c>
       <c r="H44" t="n">
-        <v>34.39631401642134</v>
+        <v>34.39631401642144</v>
       </c>
       <c r="I44" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="J44" t="n">
-        <v>79.32703524540824</v>
+        <v>79.32703524540817</v>
       </c>
       <c r="K44" t="n">
-        <v>128.2634855990985</v>
+        <v>79.32703524540817</v>
       </c>
       <c r="L44" t="n">
-        <v>410.1944886059149</v>
+        <v>361.2580382522245</v>
       </c>
       <c r="M44" t="n">
-        <v>726.4793247744066</v>
+        <v>677.5428744207161</v>
       </c>
       <c r="N44" t="n">
-        <v>1037.264149587175</v>
+        <v>988.3276992334841</v>
       </c>
       <c r="O44" t="n">
-        <v>1306.822742350472</v>
+        <v>1058.713521956284</v>
       </c>
       <c r="P44" t="n">
-        <v>1306.822742350472</v>
+        <v>1278.81504980948</v>
       </c>
       <c r="Q44" t="n">
-        <v>1452.622218711064</v>
+        <v>1424.614526170071</v>
       </c>
       <c r="R44" t="n">
-        <v>1452.622218711064</v>
+        <v>1465.755418580953</v>
       </c>
       <c r="S44" t="n">
-        <v>1460.975085978892</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="T44" t="n">
         <v>1474.10828584878</v>
       </c>
       <c r="U44" t="n">
-        <v>1459.491377618609</v>
+        <v>1459.49137761861</v>
       </c>
       <c r="V44" t="n">
-        <v>1373.429813875443</v>
+        <v>1373.429813875444</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X44" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7346229373924</v>
+        <v>996.7346229373932</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="C45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="D45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="E45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="F45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="G45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="H45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="I45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="J45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="K45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="L45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="M45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="N45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="O45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="P45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="R45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="S45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="T45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884351</v>
       </c>
       <c r="U45" t="n">
-        <v>65.84159348018619</v>
+        <v>65.84159348018638</v>
       </c>
       <c r="V45" t="n">
-        <v>60.82130518525228</v>
+        <v>60.82130518525238</v>
       </c>
       <c r="W45" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="X45" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="C46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="D46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="E46" t="n">
-        <v>29.48216571697559</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="F46" t="n">
-        <v>29.48216571697559</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="G46" t="n">
-        <v>29.48216571697559</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="H46" t="n">
-        <v>29.48216571697559</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="I46" t="n">
-        <v>33.03958171469394</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="J46" t="n">
-        <v>147.7038596898815</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="K46" t="n">
-        <v>147.7038596898815</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="L46" t="n">
-        <v>147.7038596898815</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="M46" t="n">
-        <v>147.7038596898815</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="N46" t="n">
-        <v>147.7038596898815</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="O46" t="n">
-        <v>147.7038596898815</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="P46" t="n">
-        <v>147.7038596898815</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="R46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="S46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="T46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="U46" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086455</v>
       </c>
       <c r="V46" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961979</v>
       </c>
       <c r="W46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="X46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.48216571697559</v>
+        <v>29.48216571697561</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>63.3403591384379</v>
+        <v>63.34035913843782</v>
       </c>
       <c r="K11" t="n">
-        <v>93.24597309853768</v>
+        <v>10.58331220144363</v>
       </c>
       <c r="L11" t="n">
-        <v>122.5259394410737</v>
+        <v>221.5445116161333</v>
       </c>
       <c r="M11" t="n">
-        <v>2.831188510296244</v>
+        <v>290.1466336104412</v>
       </c>
       <c r="N11" t="n">
-        <v>205.1555770549409</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O11" t="n">
-        <v>246.758517458259</v>
+        <v>88.16582282410609</v>
       </c>
       <c r="P11" t="n">
-        <v>17.22683858619935</v>
+        <v>18.30436402847685</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>21.33396690395307</v>
       </c>
       <c r="R11" t="n">
-        <v>42.58424007769262</v>
+        <v>32.05383439737091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8763,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>131.9825104815848</v>
       </c>
       <c r="L12" t="n">
-        <v>143.1903295646946</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M12" t="n">
         <v>116.6266986255859</v>
@@ -8787,10 +8787,10 @@
         <v>120.6592788752669</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>59.40448275348579</v>
       </c>
       <c r="L13" t="n">
         <v>105.2836065989273</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>63.34035913843795</v>
+        <v>63.34035913843776</v>
       </c>
       <c r="K14" t="n">
-        <v>10.58331220144363</v>
+        <v>93.24597309853753</v>
       </c>
       <c r="L14" t="n">
         <v>221.5445116161333</v>
       </c>
       <c r="M14" t="n">
-        <v>2.8311885102963</v>
+        <v>207.4839727133472</v>
       </c>
       <c r="N14" t="n">
-        <v>283.4008070189657</v>
+        <v>205.1555770549409</v>
       </c>
       <c r="O14" t="n">
-        <v>88.16582282410621</v>
+        <v>210.1559461300631</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>99.88949948329331</v>
       </c>
       <c r="Q14" t="n">
-        <v>103.9966278010472</v>
+        <v>90.1263166299335</v>
       </c>
       <c r="R14" t="n">
-        <v>33.13135983964846</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.4375674072098414</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>131.9825104815848</v>
       </c>
       <c r="L15" t="n">
-        <v>192.1390835020824</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M15" t="n">
-        <v>116.6266986255859</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>101.9573524286611</v>
@@ -9024,7 +9024,7 @@
         <v>120.6592788752669</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.7090105415577</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9091,19 +9091,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9960,16 +9960,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>160.6710078794953</v>
+        <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>255.2125803475263</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10194,7 +10194,7 @@
         <v>131.9825104815848</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3045437566416</v>
+        <v>138.5896334287033</v>
       </c>
       <c r="M30" t="n">
         <v>301.77688131</v>
@@ -10203,10 +10203,10 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>239.2124677667938</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>120.6592788752669</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10428,10 +10428,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>131.9825104815848</v>
       </c>
       <c r="L33" t="n">
-        <v>184.9032655295459</v>
+        <v>138.5896334287027</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10443,7 +10443,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>120.6592788752669</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>190.5631671206175</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>270.6444670286918</v>
+        <v>161.0185734152586</v>
       </c>
       <c r="M35" t="n">
         <v>291.2847697033555</v>
@@ -10601,13 +10601,13 @@
         <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>1.027783097004171</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>101.9573524286611</v>
       </c>
       <c r="O36" t="n">
-        <v>158.9599787030483</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P36" t="n">
         <v>120.6592788752669</v>
@@ -10747,22 +10747,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
-        <v>10.76547155617696</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>93.5482706932595</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
         <v>210.0462273461148</v>
@@ -10829,22 +10829,22 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2847697033555</v>
+        <v>14.00601445396551</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>210.1559461300631</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>1.027783097004171</v>
+        <v>1.027783097004257</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>120.3824293501763</v>
       </c>
       <c r="M39" t="n">
-        <v>154.9336490012098</v>
+        <v>116.6266986255859</v>
       </c>
       <c r="N39" t="n">
         <v>101.9573524286611</v>
@@ -10920,10 +10920,10 @@
         <v>120.6592788752669</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>92.52927989875845</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,19 +10978,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
-        <v>10.76547155617696</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
         <v>105.6509998050918</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>4.283794627864729</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>270.6444670286918</v>
@@ -11078,10 +11078,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>1.027783097004257</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>67.25726285106322</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>131.9825104815848</v>
@@ -11157,10 +11157,10 @@
         <v>120.6592788752669</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>23.45476942646257</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>28.98801883409735</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11309,16 +11309,16 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>45.57390125573681</v>
       </c>
       <c r="P44" t="n">
-        <v>195.1363699775671</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>1.027783097004171</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>59.60881983156341</v>
       </c>
       <c r="K45" t="n">
         <v>131.9825104815848</v>
@@ -11452,10 +11452,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>105.2836065989273</v>
@@ -11470,10 +11470,10 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.4344561747823</v>
+        <v>169.4344561747824</v>
       </c>
       <c r="C11" t="n">
-        <v>145.5527131781278</v>
+        <v>145.5527131781279</v>
       </c>
       <c r="D11" t="n">
         <v>133.1193754391763</v>
       </c>
       <c r="E11" t="n">
-        <v>84.16346696149105</v>
+        <v>84.16346696149125</v>
       </c>
       <c r="F11" t="n">
-        <v>115.8838045398684</v>
+        <v>115.8838045398686</v>
       </c>
       <c r="G11" t="n">
-        <v>131.5106423454654</v>
+        <v>141.3640315243993</v>
       </c>
       <c r="H11" t="n">
-        <v>123.0868228487262</v>
+        <v>142.2448436041343</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.89105811681802</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.588811635894</v>
+        <v>22.58881163589405</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17.76019284593451</v>
       </c>
       <c r="U11" t="n">
-        <v>45.49679044823571</v>
+        <v>45.49679044823577</v>
       </c>
       <c r="V11" t="n">
-        <v>116.226999406101</v>
+        <v>116.2269994061011</v>
       </c>
       <c r="W11" t="n">
         <v>133.2436796227159</v>
       </c>
       <c r="X11" t="n">
-        <v>155.1299300916551</v>
+        <v>72.46726919456123</v>
       </c>
       <c r="Y11" t="n">
         <v>177.6327832153989</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499535</v>
+        <v>1.340816169499734</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.995261989190226</v>
+        <v>2.995261989190425</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.4344561747824</v>
+        <v>169.4344561747823</v>
       </c>
       <c r="C14" t="n">
-        <v>145.5527131781279</v>
+        <v>62.89005228103386</v>
       </c>
       <c r="D14" t="n">
         <v>133.1193754391763</v>
@@ -23504,13 +23504,13 @@
         <v>166.8261278585852</v>
       </c>
       <c r="F14" t="n">
-        <v>198.5464654369625</v>
+        <v>115.8838045398685</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1733032425596</v>
+        <v>214.1733032425595</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5097640357621</v>
+        <v>142.2448436041343</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.588811635894</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>17.76019284593445</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.49679044823571</v>
       </c>
       <c r="V14" t="n">
-        <v>33.56433850900699</v>
+        <v>116.226999406101</v>
       </c>
       <c r="W14" t="n">
-        <v>50.58101872562185</v>
+        <v>50.58101872562193</v>
       </c>
       <c r="X14" t="n">
-        <v>155.1299300916552</v>
+        <v>155.1299300916551</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.6327832153989</v>
+        <v>140.7145696140565</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499606</v>
+        <v>1.340816169499675</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.995261989190297</v>
+        <v>2.995261989190368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.519851490973451e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1456042.821558218</v>
+        <v>1456042.821558217</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1456042.821558217</v>
+        <v>1456042.821558218</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1456042.821558217</v>
+        <v>1456042.821558218</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220482.9987941149</v>
+        <v>220482.998794115</v>
       </c>
       <c r="C2" t="n">
         <v>220482.9987941149</v>
@@ -26320,7 +26320,7 @@
         <v>220482.998794115</v>
       </c>
       <c r="E2" t="n">
-        <v>189997.5222551199</v>
+        <v>189997.52225512</v>
       </c>
       <c r="F2" t="n">
         <v>189997.52225512</v>
@@ -26341,19 +26341,19 @@
         <v>220929.637214634</v>
       </c>
       <c r="L2" t="n">
-        <v>220929.6372146338</v>
+        <v>220929.6372146339</v>
       </c>
       <c r="M2" t="n">
-        <v>220929.6372146341</v>
+        <v>220929.6372146342</v>
       </c>
       <c r="N2" t="n">
         <v>220929.6372146341</v>
       </c>
       <c r="O2" t="n">
-        <v>220929.6372146342</v>
+        <v>220929.6372146341</v>
       </c>
       <c r="P2" t="n">
-        <v>220929.637214634</v>
+        <v>220929.6372146341</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272100.1210438669</v>
+        <v>272100.1210438668</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>105208.5138763724</v>
+        <v>105208.5138763725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105208.5138763724</v>
+        <v>105208.5138763725</v>
       </c>
       <c r="M3" t="n">
-        <v>18266.68546817853</v>
+        <v>18266.68546817846</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65067.86905818315</v>
+        <v>65067.8690581831</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26430,10 +26430,10 @@
         <v>398490.6727302946</v>
       </c>
       <c r="G4" t="n">
-        <v>468402.5158330764</v>
+        <v>468402.5158330766</v>
       </c>
       <c r="H4" t="n">
-        <v>468402.5158330764</v>
+        <v>468402.5158330765</v>
       </c>
       <c r="I4" t="n">
         <v>468402.5158330765</v>
@@ -26448,7 +26448,7 @@
         <v>471274.3445339244</v>
       </c>
       <c r="M4" t="n">
-        <v>470303.7233314324</v>
+        <v>470303.7233314325</v>
       </c>
       <c r="N4" t="n">
         <v>470303.7233314324</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24501.91760808067</v>
+        <v>24501.91760808066</v>
       </c>
       <c r="F5" t="n">
-        <v>24501.91760808067</v>
+        <v>24501.91760808066</v>
       </c>
       <c r="G5" t="n">
-        <v>35557.88579942161</v>
+        <v>35557.88579942162</v>
       </c>
       <c r="H5" t="n">
-        <v>35557.88579942161</v>
+        <v>35557.88579942162</v>
       </c>
       <c r="I5" t="n">
-        <v>35557.88579942161</v>
+        <v>35557.88579942162</v>
       </c>
       <c r="J5" t="n">
         <v>47597.11518397227</v>
@@ -26503,13 +26503,13 @@
         <v>44490.80287720933</v>
       </c>
       <c r="N5" t="n">
-        <v>44490.80287720933</v>
+        <v>44490.80287720934</v>
       </c>
       <c r="O5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720934</v>
       </c>
       <c r="P5" t="n">
-        <v>44490.80287720933</v>
+        <v>44490.80287720934</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316522.3469427648</v>
+        <v>-316526.81332697</v>
       </c>
       <c r="C6" t="n">
-        <v>-316522.3469427648</v>
+        <v>-316526.81332697</v>
       </c>
       <c r="D6" t="n">
-        <v>-316522.3469427648</v>
+        <v>-316526.81332697</v>
       </c>
       <c r="E6" t="n">
-        <v>-505095.1891271223</v>
+        <v>-505404.5102767172</v>
       </c>
       <c r="F6" t="n">
-        <v>-232995.0680832553</v>
+        <v>-233304.3892328505</v>
       </c>
       <c r="G6" t="n">
-        <v>-388239.2782942364</v>
+        <v>-388239.2782942367</v>
       </c>
       <c r="H6" t="n">
-        <v>-283030.764417864</v>
+        <v>-283030.7644178641</v>
       </c>
       <c r="I6" t="n">
-        <v>-283030.764417864</v>
+        <v>-283030.7644178641</v>
       </c>
       <c r="J6" t="n">
-        <v>-459432.5886471005</v>
+        <v>-459432.5886471004</v>
       </c>
       <c r="K6" t="n">
-        <v>-297941.8225032626</v>
+        <v>-297941.8225032627</v>
       </c>
       <c r="L6" t="n">
         <v>-403150.3363796353</v>
       </c>
       <c r="M6" t="n">
-        <v>-312131.5744621863</v>
+        <v>-312131.5744621861</v>
       </c>
       <c r="N6" t="n">
         <v>-293864.8889940077</v>
@@ -26561,7 +26561,7 @@
         <v>-358932.7580521908</v>
       </c>
       <c r="P6" t="n">
-        <v>-293864.8889940078</v>
+        <v>-293864.8889940077</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>204.6527842030509</v>
+      </c>
+      <c r="F2" t="n">
         <v>204.652784203051</v>
       </c>
-      <c r="F2" t="n">
-        <v>204.6527842030509</v>
-      </c>
       <c r="G2" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="H2" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="I2" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="J2" t="n">
         <v>212.8454786681945</v>
@@ -26716,16 +26716,16 @@
         <v>212.8454786681945</v>
       </c>
       <c r="M2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O2" t="n">
         <v>235.6788355034176</v>
       </c>
       <c r="P2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="F4" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="G4" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="H4" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="I4" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="J4" t="n">
-        <v>451.189732359289</v>
+        <v>451.1897323592891</v>
       </c>
       <c r="K4" t="n">
-        <v>451.189732359289</v>
+        <v>451.1897323592891</v>
       </c>
       <c r="L4" t="n">
-        <v>451.189732359289</v>
+        <v>451.1897323592891</v>
       </c>
       <c r="M4" t="n">
-        <v>368.5270714621949</v>
+        <v>368.5270714621951</v>
       </c>
       <c r="N4" t="n">
-        <v>368.5270714621949</v>
+        <v>368.5270714621951</v>
       </c>
       <c r="O4" t="n">
-        <v>368.5270714621949</v>
+        <v>368.5270714621951</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5270714621949</v>
+        <v>368.5270714621951</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>131.5106423454655</v>
+        <v>131.5106423454656</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.33483632272902</v>
+        <v>81.33483632272885</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454655</v>
+        <v>131.5106423454657</v>
       </c>
       <c r="M2" t="n">
-        <v>22.83335683522316</v>
+        <v>22.83335683522307</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272893</v>
+        <v>81.33483632272888</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>368.5270714621949</v>
+        <v>368.5270714621951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454655</v>
+        <v>131.5106423454656</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272902</v>
+        <v>81.33483632272885</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="C11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="J11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="L11" t="n">
-        <v>181.6812330721537</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>204.652784203051</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="P11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.5964155571705</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="R11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="S11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28181,16 +28181,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7381381529399</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H12" t="n">
-        <v>125.6730735315877</v>
+        <v>200.0829820463777</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1407760227504</v>
+        <v>113.7022601750334</v>
       </c>
       <c r="J12" t="n">
-        <v>134.5269056868864</v>
+        <v>133.5712356903773</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.044035583042461</v>
+        <v>142.1741180358727</v>
       </c>
       <c r="R12" t="n">
-        <v>204.652784203051</v>
+        <v>163.8163636610262</v>
       </c>
       <c r="S12" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="13">
@@ -28245,37 +28245,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.9509418285471</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>204.652784203051</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>204.652784203051</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G13" t="n">
-        <v>168.695353780268</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7761987305484</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6899393962033</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="J13" t="n">
         <v>141.6526168753024</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5701020288577</v>
+        <v>158.8282801724659</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0085004530144</v>
+        <v>31.34583955592034</v>
       </c>
       <c r="M13" t="n">
         <v>24.36707598317778</v>
@@ -28284,37 +28284,37 @@
         <v>127.0284545617099</v>
       </c>
       <c r="O13" t="n">
-        <v>142.3636293323271</v>
+        <v>36.71262952723529</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4855967232444</v>
+        <v>57.82293582615033</v>
       </c>
       <c r="Q13" t="n">
         <v>169.105275865629</v>
       </c>
       <c r="R13" t="n">
-        <v>203.1862066784475</v>
+        <v>204.0710394574667</v>
       </c>
       <c r="S13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="C14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="D14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="E14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="G14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="H14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="I14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="J14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="K14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>204.6527842030509</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>204.6527842030509</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.35405989412958</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="R14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="S14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="T14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.6527842030509</v>
+        <v>190.9131465204815</v>
       </c>
       <c r="C15" t="n">
-        <v>204.6527842030509</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28415,28 +28415,28 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>204.6527842030509</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7381381529399</v>
       </c>
       <c r="H15" t="n">
-        <v>125.6730735315877</v>
+        <v>204.652784203051</v>
       </c>
       <c r="I15" t="n">
-        <v>113.7022601750334</v>
+        <v>195.9273536649175</v>
       </c>
       <c r="J15" t="n">
         <v>133.5712356903773</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9825104815848</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>116.6266986255859</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.46510749431501</v>
+        <v>142.1741180358727</v>
       </c>
       <c r="R15" t="n">
         <v>163.8163636610262</v>
       </c>
       <c r="S15" t="n">
-        <v>204.6527842030509</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T15" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U15" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V15" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W15" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X15" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="16">
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.6527842030509</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>204.652784203051</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>204.6527842030509</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.695353780268</v>
@@ -28506,52 +28506,52 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8563324981777</v>
+        <v>141.6526168753024</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5701020288577</v>
+        <v>204.652784203051</v>
       </c>
       <c r="L16" t="n">
-        <v>136.6294461548476</v>
+        <v>201.6415513487665</v>
       </c>
       <c r="M16" t="n">
-        <v>24.36707598317778</v>
+        <v>140.0413362524986</v>
       </c>
       <c r="N16" t="n">
-        <v>98.35323494359275</v>
+        <v>127.0284545617099</v>
       </c>
       <c r="O16" t="n">
-        <v>36.71262952723529</v>
+        <v>142.3636293323271</v>
       </c>
       <c r="P16" t="n">
-        <v>145.3071888536489</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.7825515623165</v>
+        <v>169.105275865629</v>
       </c>
       <c r="R16" t="n">
-        <v>204.6527842030509</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S16" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="T16" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U16" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V16" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W16" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X16" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.6527842030509</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="C17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="D17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="E17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="F17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="G17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="H17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="I17" t="n">
         <v>240.543842319869</v>
       </c>
       <c r="J17" t="n">
-        <v>264.6532378506972</v>
+        <v>264.6532378506971</v>
       </c>
       <c r="K17" t="n">
         <v>215.2360964044946</v>
@@ -28612,25 +28612,25 @@
         <v>236.7066186004218</v>
       </c>
       <c r="S17" t="n">
-        <v>309.9042567360391</v>
+        <v>309.9042567360389</v>
       </c>
       <c r="T17" t="n">
-        <v>305.0756379460796</v>
+        <v>305.0756379460794</v>
       </c>
       <c r="U17" t="n">
-        <v>332.8122355483808</v>
+        <v>332.8122355483806</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="X17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="Y17" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
     </row>
     <row r="18">
@@ -28798,46 +28798,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="C20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="D20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="E20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="F20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="G20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="H20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="I20" t="n">
-        <v>323.206503216963</v>
+        <v>323.2065032169629</v>
       </c>
       <c r="J20" t="n">
         <v>185.3304824443948</v>
       </c>
       <c r="K20" t="n">
-        <v>297.8987573015887</v>
+        <v>215.2360964044946</v>
       </c>
       <c r="L20" t="n">
         <v>221.5445116161333</v>
       </c>
       <c r="M20" t="n">
-        <v>290.1466336104413</v>
+        <v>207.4839727133472</v>
       </c>
       <c r="N20" t="n">
         <v>205.1555770549409</v>
       </c>
       <c r="O20" t="n">
-        <v>289.4787015363655</v>
+        <v>292.818607027157</v>
       </c>
       <c r="P20" t="n">
         <v>221.8796227892503</v>
@@ -28849,25 +28849,25 @@
         <v>236.7066186004218</v>
       </c>
       <c r="S20" t="n">
-        <v>227.241595838945</v>
+        <v>306.5643512452473</v>
       </c>
       <c r="T20" t="n">
         <v>222.4129770489855</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495746512867</v>
+        <v>332.8122355483806</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="X20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="Y20" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
     </row>
     <row r="21">
@@ -29035,46 +29035,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="C23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="D23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="E23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="F23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="G23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="H23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="I23" t="n">
-        <v>240.543842319869</v>
+        <v>304.5829547868067</v>
       </c>
       <c r="J23" t="n">
         <v>185.3304824443948</v>
       </c>
       <c r="K23" t="n">
-        <v>297.8987573015887</v>
+        <v>215.2360964044946</v>
       </c>
       <c r="L23" t="n">
         <v>221.5445116161333</v>
       </c>
       <c r="M23" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104412</v>
       </c>
       <c r="N23" t="n">
         <v>205.1555770549409</v>
       </c>
       <c r="O23" t="n">
-        <v>210.1559461300631</v>
+        <v>292.818607027157</v>
       </c>
       <c r="P23" t="n">
         <v>221.8796227892503</v>
@@ -29083,7 +29083,7 @@
         <v>225.986751107004</v>
       </c>
       <c r="R23" t="n">
-        <v>316.0293740067249</v>
+        <v>319.3692794975158</v>
       </c>
       <c r="S23" t="n">
         <v>227.241595838945</v>
@@ -29092,19 +29092,19 @@
         <v>222.4129770489855</v>
       </c>
       <c r="U23" t="n">
-        <v>332.8122355483808</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="W23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="X23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="Y23" t="n">
-        <v>336.1634265485164</v>
+        <v>336.1634265485166</v>
       </c>
     </row>
     <row r="24">
@@ -29308,7 +29308,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8454786681955</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O26" t="n">
         <v>212.8454786681945</v>
@@ -29354,13 +29354,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>54.26103587704525</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29402,7 +29402,7 @@
         <v>134.3183216232903</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>212.8454786681945</v>
@@ -29411,16 +29411,16 @@
         <v>212.8454786681945</v>
       </c>
       <c r="V27" t="n">
-        <v>141.9810662866828</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X27" t="n">
         <v>212.8454786681945</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="28">
@@ -29433,19 +29433,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>195.165535030848</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.695353780268</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H28" t="n">
         <v>165.7761987305484</v>
@@ -29454,7 +29454,7 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K28" t="n">
         <v>66.40014143752285</v>
@@ -29466,10 +29466,10 @@
         <v>24.36707598317778</v>
       </c>
       <c r="N28" t="n">
-        <v>76.57468747832837</v>
+        <v>15.69057404649866</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8454786681945</v>
+        <v>36.71262952723529</v>
       </c>
       <c r="P28" t="n">
         <v>57.82293582615033</v>
@@ -29548,10 +29548,10 @@
         <v>212.8454786681945</v>
       </c>
       <c r="O29" t="n">
+        <v>212.8454786681955</v>
+      </c>
+      <c r="P29" t="n">
         <v>212.8454786681945</v>
-      </c>
-      <c r="P29" t="n">
-        <v>212.8454786681948</v>
       </c>
       <c r="Q29" t="n">
         <v>212.8454786681945</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.044035583042461</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3183216232903</v>
@@ -29648,16 +29648,16 @@
         <v>212.8454786681945</v>
       </c>
       <c r="V30" t="n">
+        <v>148.025101869725</v>
+      </c>
+      <c r="W30" t="n">
         <v>212.8454786681945</v>
       </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
       <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>212.8454786681945</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>141.9810662866834</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29691,10 +29691,10 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K31" t="n">
-        <v>212.8454786681945</v>
+        <v>66.40014143752285</v>
       </c>
       <c r="L31" t="n">
         <v>31.34583955592034</v>
@@ -29706,13 +29706,13 @@
         <v>15.69057404649866</v>
       </c>
       <c r="O31" t="n">
-        <v>36.71262952723529</v>
+        <v>113.0776175125237</v>
       </c>
       <c r="P31" t="n">
-        <v>62.31212133691864</v>
+        <v>57.82293582615033</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8454786681945</v>
+        <v>126.763038836846</v>
       </c>
       <c r="R31" t="n">
         <v>203.1862066784475</v>
@@ -29794,7 +29794,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681951</v>
       </c>
       <c r="S32" t="n">
         <v>212.8454786681945</v>
@@ -29882,19 +29882,19 @@
         <v>212.8454786681945</v>
       </c>
       <c r="U33" t="n">
+        <v>141.9810662866831</v>
+      </c>
+      <c r="V33" t="n">
         <v>212.8454786681945</v>
       </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>141.981066286686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29913,22 +29913,22 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
+        <v>141.676141212225</v>
+      </c>
+      <c r="F34" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G34" t="n">
+        <v>207.8390789836553</v>
+      </c>
+      <c r="H34" t="n">
         <v>212.8454786681945</v>
       </c>
-      <c r="F34" t="n">
+      <c r="I34" t="n">
         <v>212.8454786681945</v>
       </c>
-      <c r="G34" t="n">
-        <v>168.695353780268</v>
-      </c>
-      <c r="H34" t="n">
-        <v>165.7761987305484</v>
-      </c>
-      <c r="I34" t="n">
-        <v>164.6899393962033</v>
-      </c>
       <c r="J34" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K34" t="n">
         <v>66.40014143752285</v>
@@ -29940,7 +29940,7 @@
         <v>24.36707598317778</v>
       </c>
       <c r="N34" t="n">
-        <v>107.6196027135698</v>
+        <v>15.69057404649866</v>
       </c>
       <c r="O34" t="n">
         <v>36.71262952723529</v>
@@ -29952,7 +29952,7 @@
         <v>126.763038836846</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1862066784475</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S34" t="n">
         <v>212.8454786681945</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J35" t="n">
-        <v>185.3304824443948</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K35" t="n">
-        <v>24.67292928387706</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="L35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N35" t="n">
-        <v>113.1331708861728</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O35" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Q35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="S35" t="n">
-        <v>235.6788355034177</v>
+        <v>234.9950797818935</v>
       </c>
       <c r="T35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="U35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="36">
@@ -30113,19 +30113,19 @@
         <v>163.8163636610262</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4706822307765</v>
+        <v>229.7776326064006</v>
       </c>
       <c r="T36" t="n">
         <v>214.9448597913225</v>
       </c>
       <c r="U36" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V36" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W36" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G37" t="n">
         <v>168.695353780268</v>
@@ -30171,25 +30171,25 @@
         <v>135.5701020288577</v>
       </c>
       <c r="L37" t="n">
-        <v>136.6294461548476</v>
+        <v>31.34583955592034</v>
       </c>
       <c r="M37" t="n">
-        <v>140.0413362524986</v>
+        <v>24.36707598317778</v>
       </c>
       <c r="N37" t="n">
-        <v>235.6788355034177</v>
+        <v>15.69057404649866</v>
       </c>
       <c r="O37" t="n">
-        <v>142.3636293323271</v>
+        <v>36.71262952723529</v>
       </c>
       <c r="P37" t="n">
-        <v>145.3071888536489</v>
+        <v>57.82293582615033</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.105275865629</v>
+        <v>126.763038836846</v>
       </c>
       <c r="R37" t="n">
-        <v>203.1862066784475</v>
+        <v>225.8501058913616</v>
       </c>
       <c r="S37" t="n">
         <v>235.3435685609305</v>
@@ -30198,13 +30198,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="L38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Q38" t="n">
-        <v>219.5545504155871</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="S38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="U38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>215.0574447732899</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>142.1741180358727</v>
+        <v>49.64483813711423</v>
       </c>
       <c r="R39" t="n">
-        <v>163.8163636610262</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S39" t="n">
         <v>191.4706822307765</v>
@@ -30356,13 +30356,13 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U39" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V39" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W39" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30402,19 +30402,19 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J40" t="n">
-        <v>141.6526168753024</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K40" t="n">
-        <v>66.40014143752285</v>
+        <v>135.5701020288577</v>
       </c>
       <c r="L40" t="n">
-        <v>31.34583955592034</v>
+        <v>136.6294461548476</v>
       </c>
       <c r="M40" t="n">
         <v>24.36707598317778</v>
       </c>
       <c r="N40" t="n">
-        <v>235.6788355034177</v>
+        <v>15.69057404649866</v>
       </c>
       <c r="O40" t="n">
         <v>36.71262952723529</v>
@@ -30423,7 +30423,7 @@
         <v>145.3071888536489</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.763038836846</v>
+        <v>169.105275865629</v>
       </c>
       <c r="R40" t="n">
         <v>203.1862066784475</v>
@@ -30432,16 +30432,16 @@
         <v>235.3435685609305</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7383953681803</v>
+        <v>227.3317448608254</v>
       </c>
       <c r="U40" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V40" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W40" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,7 +30481,7 @@
         <v>235.6788355034176</v>
       </c>
       <c r="J41" t="n">
-        <v>75.75587581289099</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K41" t="n">
         <v>235.6788355034176</v>
@@ -30493,16 +30493,16 @@
         <v>235.6788355034176</v>
       </c>
       <c r="N41" t="n">
-        <v>235.6788355034176</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>235.6788355034176</v>
+        <v>126.8898506194538</v>
       </c>
       <c r="P41" t="n">
         <v>235.6788355034176</v>
       </c>
       <c r="Q41" t="n">
-        <v>225.986751107004</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R41" t="n">
         <v>235.6788355034176</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>215.0574447732898</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30557,10 +30557,10 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1407760227504</v>
+        <v>113.7022601750334</v>
       </c>
       <c r="J42" t="n">
-        <v>66.31397283931403</v>
+        <v>133.5712356903773</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>142.1741180358727</v>
+        <v>118.7193486094101</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3893383245553</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S42" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T42" t="n">
-        <v>235.6788355034176</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U42" t="n">
         <v>235.6788355034176</v>
@@ -30624,7 +30624,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30636,31 +30636,31 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I43" t="n">
-        <v>235.6788355034176</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8563324981777</v>
+        <v>141.6526168753024</v>
       </c>
       <c r="K43" t="n">
-        <v>66.40014143752285</v>
+        <v>135.5701020288577</v>
       </c>
       <c r="L43" t="n">
-        <v>31.34583955592034</v>
+        <v>136.6294461548476</v>
       </c>
       <c r="M43" t="n">
         <v>24.36707598317778</v>
       </c>
       <c r="N43" t="n">
-        <v>15.69057404649866</v>
+        <v>127.0284545617099</v>
       </c>
       <c r="O43" t="n">
-        <v>36.71262952723529</v>
+        <v>142.3636293323271</v>
       </c>
       <c r="P43" t="n">
-        <v>57.82293582615033</v>
+        <v>145.3071888536489</v>
       </c>
       <c r="Q43" t="n">
-        <v>163.2495550922795</v>
+        <v>194.5184340723213</v>
       </c>
       <c r="R43" t="n">
         <v>203.1862066784475</v>
@@ -30669,7 +30669,7 @@
         <v>235.3435685609305</v>
       </c>
       <c r="T43" t="n">
-        <v>235.6788355034176</v>
+        <v>223.7383953681803</v>
       </c>
       <c r="U43" t="n">
         <v>235.6788355034176</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K44" t="n">
-        <v>235.6788355034177</v>
+        <v>5.189869058379813</v>
       </c>
       <c r="L44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="P44" t="n">
-        <v>26.74325281168325</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Q44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="S44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T44" t="n">
-        <v>235.6788355034177</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>215.0574447732896</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30782,7 +30782,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>210.1345222154238</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>113.7022601750334</v>
       </c>
       <c r="J45" t="n">
-        <v>133.5712356903773</v>
+        <v>73.96241585881384</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30830,13 +30830,13 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U45" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V45" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W45" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30873,13 +30873,13 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I46" t="n">
-        <v>168.2832888888481</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J46" t="n">
-        <v>235.6788355034177</v>
+        <v>141.6526168753024</v>
       </c>
       <c r="K46" t="n">
-        <v>66.40014143752285</v>
+        <v>135.5701020288577</v>
       </c>
       <c r="L46" t="n">
         <v>31.34583955592034</v>
@@ -30894,10 +30894,10 @@
         <v>36.71262952723529</v>
       </c>
       <c r="P46" t="n">
-        <v>57.82293582615033</v>
+        <v>145.3071888536489</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.763038836846</v>
+        <v>194.5184340723214</v>
       </c>
       <c r="R46" t="n">
         <v>203.1862066784475</v>
@@ -30909,13 +30909,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="K11" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>78.24522996402486</v>
       </c>
       <c r="O11" t="n">
-        <v>36.60257132819591</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.07752544227744</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.18977839778469</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.53040568032177</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35468,7 +35468,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>45.4804691264724</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -35477,22 +35477,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>55.914646050111</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>74.40990851479</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>22.80790021451832</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>70.33446257976068</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35541,37 +35541,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.334021163578985</v>
+        <v>27.03586353808285</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.47013395234029</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>62.97664299082601</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>65.72590198460429</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.95743042278293</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>38.87658547250255</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.96284480684763</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="L13" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35583,13 +35583,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.8848327790192366</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>78.24522996402486</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>82.66266089709409</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.66266089709409</v>
+        <v>68.79234972598049</v>
       </c>
       <c r="R14" t="n">
-        <v>1.077525442277555</v>
+        <v>10.53040568032177</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35699,10 +35699,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.90228980538521</v>
+        <v>14.16265212281577</v>
       </c>
       <c r="C15" t="n">
-        <v>17.13463267868502</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -35711,16 +35711,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>45.8293450831226</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>78.97971067146334</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>71.75665415190613</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.18210197227448</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.03586353808285</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>38.19560323107859</v>
+        <v>38.19560323107865</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.47013395234029</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.72590198460429</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,28 +35805,28 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.08268217419331</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>65.01210519391886</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>82.66266089709409</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>59.34559534940205</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.01951272547042</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46657752460349</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>79.32275540630243</v>
+        <v>79.32275540630228</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="T17" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="U17" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>82.66266089709409</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>82.66266089709409</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>79.32275540630239</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>79.32275540630228</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>82.66266089709396</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,25 +36352,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>64.03911246693769</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>82.66266089709409</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>82.66266089709409</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.32275540630306</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,10 +36388,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82.66266089709409</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>15.2836429393646</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>137.0896028553035</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6556096098146</v>
+        <v>207.6556096098147</v>
       </c>
       <c r="L26" t="n">
         <v>261.945434080753</v>
@@ -36604,7 +36604,7 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0907086322204</v>
+        <v>291.0907086322194</v>
       </c>
       <c r="O26" t="n">
         <v>249.4480499963904</v>
@@ -36616,7 +36616,7 @@
         <v>124.4388415088087</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72310014546523</v>
+        <v>18.72310014546528</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>119.9221144064653</v>
       </c>
       <c r="M27" t="n">
-        <v>44.04430925390941</v>
+        <v>185.150182684414</v>
       </c>
       <c r="N27" t="n">
-        <v>208.6565061459616</v>
+        <v>153.2552279188652</v>
       </c>
       <c r="O27" t="n">
         <v>134.5697545638964</v>
       </c>
       <c r="P27" t="n">
-        <v>85.70459520341238</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,19 +36729,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.70835405887565</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.16933745596953</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.15012488792651</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>92.9891461700168</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>60.88411343182971</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1328491409592</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>137.0896028553035</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6556096098147</v>
+        <v>207.6556096098146</v>
       </c>
       <c r="L29" t="n">
         <v>261.945434080753</v>
@@ -36841,19 +36841,19 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0907086322194</v>
+        <v>291.0907086322193</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4480499963904</v>
+        <v>249.4480499963914</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4914187740652</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q29" t="n">
         <v>124.4388415088087</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72310014546528</v>
+        <v>18.72310014546523</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>119.9221144064653</v>
+        <v>18.20720407852698</v>
       </c>
       <c r="M30" t="n">
         <v>185.150182684414</v>
@@ -36923,10 +36923,10 @@
         <v>208.6565061459616</v>
       </c>
       <c r="O30" t="n">
-        <v>118.5594394393694</v>
+        <v>134.5697545638964</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.70459520341238</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.66282841748375</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>92.98914617001674</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4453372306717</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>76.36498798528838</v>
       </c>
       <c r="P31" t="n">
-        <v>4.489185510768313</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08243983134848</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72310014546528</v>
+        <v>18.72310014546592</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39096310256613</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>64.52083617936958</v>
+        <v>18.20720407852641</v>
       </c>
       <c r="M33" t="n">
         <v>185.150182684414</v>
@@ -37163,7 +37163,7 @@
         <v>134.5697545638964</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.70459520341238</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37209,22 +37209,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16933745596953</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91859644974787</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>39.1437252033873</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.06927993764612</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.1555392719912</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>92.9891461700168</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>91.92902866707111</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.659271989747065</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>159.9229596905266</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L35" t="n">
-        <v>284.7787909159762</v>
+        <v>175.1528973025429</v>
       </c>
       <c r="M35" t="n">
-        <v>319.4796324934259</v>
+        <v>319.4796324934258</v>
       </c>
       <c r="N35" t="n">
-        <v>191.3784008501977</v>
+        <v>313.9240654674425</v>
       </c>
       <c r="O35" t="n">
-        <v>272.2814068316136</v>
+        <v>36.60257132819591</v>
       </c>
       <c r="P35" t="n">
-        <v>222.3247756092881</v>
+        <v>13.79921271416724</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.2721983440319</v>
+        <v>147.2721983440318</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.55645698068835</v>
       </c>
       <c r="S35" t="n">
-        <v>8.437239664472678</v>
+        <v>7.753483942948456</v>
       </c>
       <c r="T35" t="n">
-        <v>13.26585845443222</v>
+        <v>13.26585845443213</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>38.30695037562388</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37409,7 +37409,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>38.30695037562415</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>96.75195328497094</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>119.4158524978847</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>22.66389921291408</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>143.8966237522824</v>
+        <v>159.9229596905266</v>
       </c>
       <c r="K38" t="n">
-        <v>230.4889664450379</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L38" t="n">
-        <v>284.7787909159762</v>
+        <v>284.7787909159761</v>
       </c>
       <c r="M38" t="n">
-        <v>319.4796324934259</v>
+        <v>42.20087724403586</v>
       </c>
       <c r="N38" t="n">
         <v>313.9240654674425</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>36.60257132819591</v>
       </c>
       <c r="P38" t="n">
-        <v>13.79921271416733</v>
+        <v>222.324775609288</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.1479132562013</v>
+        <v>147.2721983440318</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.437239664472678</v>
+        <v>8.437239664472592</v>
       </c>
       <c r="T38" t="n">
-        <v>13.26585845443222</v>
+        <v>13.26585845443213</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>38.30695037562413</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>38.30695037562388</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>115.8225030052399</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>119.4158524978847</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.593349492645144</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>159.9229596905266</v>
       </c>
       <c r="K41" t="n">
-        <v>24.72653372678774</v>
+        <v>20.44273909892304</v>
       </c>
       <c r="L41" t="n">
         <v>284.7787909159761</v>
       </c>
       <c r="M41" t="n">
-        <v>319.4796324934258</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N41" t="n">
-        <v>313.9240654674425</v>
+        <v>78.24522996402486</v>
       </c>
       <c r="O41" t="n">
-        <v>272.2814068316135</v>
+        <v>163.4924219476497</v>
       </c>
       <c r="P41" t="n">
-        <v>222.324775609288</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>147.2721983440318</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>41.55645698068838</v>
       </c>
       <c r="S41" t="n">
-        <v>8.437239664472592</v>
+        <v>8.437239664472621</v>
       </c>
       <c r="T41" t="n">
-        <v>13.26585845443213</v>
+        <v>13.26585845443216</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>38.30695037562405</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -37880,13 +37880,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>17.5729746635291</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>20.73397571209505</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>94.00269429119263</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>70.98889610721427</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.48651625543349</v>
+        <v>25.41315820669229</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>11.94044013523727</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.34835305902287</v>
+        <v>50.34835305902278</v>
       </c>
       <c r="K44" t="n">
-        <v>49.43075793302045</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>284.7787909159762</v>
+        <v>284.7787909159761</v>
       </c>
       <c r="M44" t="n">
-        <v>319.4796324934259</v>
+        <v>319.4796324934258</v>
       </c>
       <c r="N44" t="n">
         <v>313.9240654674425</v>
       </c>
       <c r="O44" t="n">
-        <v>272.2814068316136</v>
+        <v>71.09679062909133</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>222.324775609288</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.2721983440319</v>
+        <v>147.2721983440318</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.55645698068835</v>
       </c>
       <c r="S44" t="n">
-        <v>8.437239664472678</v>
+        <v>8.437239664472592</v>
       </c>
       <c r="T44" t="n">
-        <v>13.26585845443222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38069,7 +38069,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.30695037562388</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -38078,7 +38078,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>38.30695037562413</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>94.0026942911926</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.593349492644792</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>115.82250300524</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>25.41315820669241</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
